--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7D724-2863-489B-959A-6DE60FFB6A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF573474-201A-45B9-8B98-E869130EDFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -115,7 +115,10 @@
     <t>نام و نام‌خانودگی</t>
   </si>
   <si>
-    <t>سری صفر</t>
+    <t xml:space="preserve"> سری صفر (نمره تمرین)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سری صفر (نهایی)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -238,15 +244,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}" name="Table5" displayName="Table5" ref="A1:C31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C31" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}" name="Table5" displayName="Table5" ref="A1:D30" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D30" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{78EDE511-4ADE-4118-ABF4-6DB1AD38664B}" name="شماره دانشجویی" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{ED0A6BE4-7A09-44BA-BC7A-147F90A967E7}" name="نام و نام‌خانودگی" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F6F5ACAE-377A-4473-9F04-9320E7FEC4DD}" name="سری صفر" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{78EDE511-4ADE-4118-ABF4-6DB1AD38664B}" name="شماره دانشجویی" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{ED0A6BE4-7A09-44BA-BC7A-147F90A967E7}" name="نام و نام‌خانودگی" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F6F5ACAE-377A-4473-9F04-9320E7FEC4DD}" name=" سری صفر (نمره تمرین)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A189F260-A295-4F63-B216-6F1091D5C7C4}" name=" سری صفر (نهایی)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,15 +524,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,7 +547,9 @@
       <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,8 +559,12 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,8 +574,12 @@
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -571,8 +589,12 @@
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -582,8 +604,12 @@
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,8 +619,12 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -605,8 +635,12 @@
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,8 +650,12 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,8 +665,12 @@
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -638,8 +680,12 @@
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -649,8 +695,12 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,8 +710,12 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,8 +725,12 @@
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -682,8 +740,12 @@
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -693,8 +755,12 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,8 +770,12 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -715,8 +785,12 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,8 +800,12 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,8 +815,12 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,8 +830,12 @@
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,8 +845,12 @@
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,8 +860,12 @@
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,8 +875,12 @@
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,8 +890,12 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,8 +905,12 @@
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>100</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,8 +920,12 @@
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,8 +935,12 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,8 +950,12 @@
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,8 +965,12 @@
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -858,8 +980,12 @@
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -895,6 +1021,30 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF573474-201A-45B9-8B98-E869130EDFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5897A4C5-5B8E-48C8-9403-D89E139F5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="492" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,22 @@
     <t>نام و نام‌خانودگی</t>
   </si>
   <si>
-    <t xml:space="preserve"> سری صفر (نمره تمرین)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> سری صفر (نهایی)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> سری صفر (نمره تمرین) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>لحاظ نمیشود</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{78EDE511-4ADE-4118-ABF4-6DB1AD38664B}" name="شماره دانشجویی" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{ED0A6BE4-7A09-44BA-BC7A-147F90A967E7}" name="نام و نام‌خانودگی" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F6F5ACAE-377A-4473-9F04-9320E7FEC4DD}" name=" سری صفر (نمره تمرین)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F6F5ACAE-377A-4473-9F04-9320E7FEC4DD}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A189F260-A295-4F63-B216-6F1091D5C7C4}" name=" سری صفر (نهایی)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -525,15 +537,14 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="3" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,10 +556,10 @@
         <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -801,10 +812,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -846,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1"/>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5897A4C5-5B8E-48C8-9403-D89E139F5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A5E09-3F19-4EB9-B730-35FB58DCAB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -132,6 +132,9 @@
       <t>لحاظ نمیشود</t>
     </r>
   </si>
+  <si>
+    <t>سری یک</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +164,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,11 +194,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,11 +233,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -256,16 +296,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}" name="Table5" displayName="Table5" ref="A1:D30" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D30" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}" name="Table5" displayName="Table5" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E30" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{78EDE511-4ADE-4118-ABF4-6DB1AD38664B}" name="شماره دانشجویی" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{ED0A6BE4-7A09-44BA-BC7A-147F90A967E7}" name="نام و نام‌خانودگی" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F6F5ACAE-377A-4473-9F04-9320E7FEC4DD}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A189F260-A295-4F63-B216-6F1091D5C7C4}" name=" سری صفر (نهایی)" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{78EDE511-4ADE-4118-ABF4-6DB1AD38664B}" name="شماره دانشجویی" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{ED0A6BE4-7A09-44BA-BC7A-147F90A967E7}" name="نام و نام‌خانودگی" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F6F5ACAE-377A-4473-9F04-9320E7FEC4DD}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A189F260-A295-4F63-B216-6F1091D5C7C4}" name=" سری صفر (نهایی)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BCB32E8C-8BA4-4082-AC39-5BCC9B34C73C}" name="سری یک" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -537,7 +578,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +586,7 @@
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -561,9 +602,11 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>993212002</v>
       </c>
@@ -576,9 +619,11 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>993112005</v>
       </c>
@@ -591,7 +636,9 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -606,7 +653,9 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -621,7 +670,9 @@
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -636,10 +687,12 @@
       <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>993212014</v>
       </c>
@@ -652,9 +705,11 @@
       <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>993212016</v>
       </c>
@@ -667,7 +722,9 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -682,7 +739,9 @@
       <c r="D9" s="1">
         <v>100</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -697,7 +756,9 @@
       <c r="D10" s="1">
         <v>100</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -712,7 +773,9 @@
       <c r="D11" s="1">
         <v>100</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -727,7 +790,9 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -742,7 +807,9 @@
       <c r="D13" s="1">
         <v>100</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -757,7 +824,9 @@
       <c r="D14" s="1">
         <v>100</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -772,7 +841,9 @@
       <c r="D15" s="1">
         <v>100</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -787,7 +858,9 @@
       <c r="D16" s="1">
         <v>100</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -802,7 +875,9 @@
       <c r="D17" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -817,7 +892,9 @@
       <c r="D18" s="1">
         <v>100</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -832,7 +909,9 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -847,7 +926,9 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -862,7 +943,9 @@
       <c r="D21" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -877,7 +960,9 @@
       <c r="D22" s="1">
         <v>100</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -892,7 +977,9 @@
       <c r="D23" s="1">
         <v>100</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -907,7 +994,9 @@
       <c r="D24" s="1">
         <v>100</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -922,7 +1011,9 @@
       <c r="D25" s="1">
         <v>100</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -937,7 +1028,9 @@
       <c r="D26" s="1">
         <v>100</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -952,7 +1045,9 @@
       <c r="D27" s="1">
         <v>100</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -967,7 +1062,9 @@
       <c r="D28" s="1">
         <v>100</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -982,7 +1079,9 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -997,7 +1096,9 @@
       <c r="D30" s="1">
         <v>100</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -1032,7 +1133,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C35">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1044,6 +1145,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1055,7 +1168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A5E09-3F19-4EB9-B730-35FB58DCAB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0F585-CB7D-4E48-9AD9-56A14685181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,7 +961,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0F585-CB7D-4E48-9AD9-56A14685181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFEEF19-2BE9-6049-8310-F0750ECB7976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="660" windowWidth="22640" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>سری یک</t>
+  </si>
+  <si>
+    <t>پروژه</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -270,7 +276,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
@@ -296,17 +301,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}" name="Table5" displayName="Table5" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E30" xr:uid="{B8CD131B-DE07-4173-9EB7-0305819EE18F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78EDE511-4ADE-4118-ABF4-6DB1AD38664B}" name="شماره دانشجویی" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{ED0A6BE4-7A09-44BA-BC7A-147F90A967E7}" name="نام و نام‌خانودگی" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F6F5ACAE-377A-4473-9F04-9320E7FEC4DD}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A189F260-A295-4F63-B216-6F1091D5C7C4}" name=" سری صفر (نهایی)" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{BCB32E8C-8BA4-4082-AC39-5BCC9B34C73C}" name="سری یک" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -578,18 +584,19 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -605,8 +612,11 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>993212002</v>
       </c>
@@ -622,8 +632,11 @@
       <c r="E2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>993112005</v>
       </c>
@@ -637,10 +650,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>993112006</v>
       </c>
@@ -656,8 +672,9 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>993112014</v>
       </c>
@@ -673,8 +690,11 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>993112020</v>
       </c>
@@ -690,9 +710,11 @@
       <c r="E6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>993212014</v>
       </c>
@@ -708,8 +730,11 @@
       <c r="E7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>993212016</v>
       </c>
@@ -723,10 +748,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>973112046</v>
       </c>
@@ -742,8 +768,11 @@
       <c r="E9" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>993212025</v>
       </c>
@@ -759,8 +788,9 @@
       <c r="E10" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>993112043</v>
       </c>
@@ -776,8 +806,9 @@
       <c r="E11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>983112051</v>
       </c>
@@ -793,8 +824,11 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>993212036</v>
       </c>
@@ -810,8 +844,11 @@
       <c r="E13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>983112064</v>
       </c>
@@ -827,8 +864,11 @@
       <c r="E14" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>993212039</v>
       </c>
@@ -844,8 +884,11 @@
       <c r="E15" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>993212042</v>
       </c>
@@ -861,8 +904,9 @@
       <c r="E16" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>973212050</v>
       </c>
@@ -878,8 +922,9 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>40030212051</v>
       </c>
@@ -895,8 +940,9 @@
       <c r="E18" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>983112135</v>
       </c>
@@ -912,8 +958,11 @@
       <c r="E19" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>983112105</v>
       </c>
@@ -929,8 +978,9 @@
       <c r="E20" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>993112107</v>
       </c>
@@ -946,8 +996,11 @@
       <c r="E21" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>993112108</v>
       </c>
@@ -963,8 +1016,9 @@
       <c r="E22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>973212090</v>
       </c>
@@ -980,8 +1034,9 @@
       <c r="E23" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>993212073</v>
       </c>
@@ -997,8 +1052,11 @@
       <c r="E24" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>993112138</v>
       </c>
@@ -1014,8 +1072,11 @@
       <c r="E25" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>993212074</v>
       </c>
@@ -1031,8 +1092,11 @@
       <c r="E26" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>40131712007</v>
       </c>
@@ -1048,8 +1112,9 @@
       <c r="E27" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>993112128</v>
       </c>
@@ -1065,8 +1130,9 @@
       <c r="E28" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>993212087</v>
       </c>
@@ -1082,8 +1148,9 @@
       <c r="E29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>993212088</v>
       </c>
@@ -1099,41 +1166,44 @@
       <c r="E30" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C35">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1145,6 +1215,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1156,7 +1238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1168,7 +1250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFEEF19-2BE9-6049-8310-F0750ECB7976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5485B18B-D2F6-4CD0-AB68-53BFAF1BBDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="660" windowWidth="22640" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>پروژه</t>
+  </si>
+  <si>
+    <t>سری سوم</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -301,18 +307,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:G30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری سوم" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,22 +588,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -615,8 +623,11 @@
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>993212002</v>
       </c>
@@ -635,8 +646,11 @@
       <c r="F2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>993112005</v>
       </c>
@@ -655,8 +669,11 @@
       <c r="F3" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>993112006</v>
       </c>
@@ -670,11 +687,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>993112014</v>
       </c>
@@ -693,8 +713,11 @@
       <c r="F5" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>993112020</v>
       </c>
@@ -713,8 +736,11 @@
       <c r="F6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>993212014</v>
       </c>
@@ -733,8 +759,11 @@
       <c r="F7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>993212016</v>
       </c>
@@ -751,8 +780,11 @@
         <v>80</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>973112046</v>
       </c>
@@ -771,8 +803,11 @@
       <c r="F9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>993212025</v>
       </c>
@@ -789,8 +824,11 @@
         <v>90</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>993112043</v>
       </c>
@@ -807,8 +845,11 @@
         <v>100</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>983112051</v>
       </c>
@@ -827,8 +868,11 @@
       <c r="F12" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>993212036</v>
       </c>
@@ -847,8 +891,11 @@
       <c r="F13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>983112064</v>
       </c>
@@ -867,8 +914,11 @@
       <c r="F14" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>993212039</v>
       </c>
@@ -887,8 +937,11 @@
       <c r="F15" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>993212042</v>
       </c>
@@ -905,8 +958,11 @@
         <v>100</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>973212050</v>
       </c>
@@ -923,8 +979,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>40030212051</v>
       </c>
@@ -941,8 +1000,11 @@
         <v>100</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>983112135</v>
       </c>
@@ -961,8 +1023,11 @@
       <c r="F19" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>983112105</v>
       </c>
@@ -979,8 +1044,11 @@
         <v>100</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>993112107</v>
       </c>
@@ -999,8 +1067,11 @@
       <c r="F21" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>993112108</v>
       </c>
@@ -1017,8 +1088,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>973212090</v>
       </c>
@@ -1035,8 +1109,11 @@
         <v>100</v>
       </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>993212073</v>
       </c>
@@ -1055,8 +1132,11 @@
       <c r="F24" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>993112138</v>
       </c>
@@ -1075,8 +1155,11 @@
       <c r="F25" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>993212074</v>
       </c>
@@ -1095,8 +1178,11 @@
       <c r="F26" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>40131712007</v>
       </c>
@@ -1113,8 +1199,11 @@
         <v>100</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>993112128</v>
       </c>
@@ -1131,8 +1220,11 @@
         <v>90</v>
       </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>993212087</v>
       </c>
@@ -1149,8 +1241,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>993212088</v>
       </c>
@@ -1169,35 +1264,38 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5485B18B-D2F6-4CD0-AB68-53BFAF1BBDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE6E43-C737-4DAA-9F12-F028FCE91B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -139,7 +139,10 @@
     <t>پروژه</t>
   </si>
   <si>
-    <t>سری سوم</t>
+    <t>سری دوم</t>
+  </si>
+  <si>
+    <t>تمرین سری چهارم</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -307,19 +313,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:G30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری سوم" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name="تمرین سری چهارم" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -588,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,10 +608,10 @@
     <col min="3" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="8" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -626,8 +633,11 @@
       <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>993212002</v>
       </c>
@@ -649,8 +659,11 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>993112005</v>
       </c>
@@ -670,10 +683,13 @@
         <v>110</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>993112006</v>
       </c>
@@ -693,8 +709,11 @@
       <c r="G4" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>993112014</v>
       </c>
@@ -716,8 +735,11 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>993112020</v>
       </c>
@@ -739,8 +761,11 @@
       <c r="G6" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>993212014</v>
       </c>
@@ -762,8 +787,11 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>993212016</v>
       </c>
@@ -783,8 +811,11 @@
       <c r="G8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>973112046</v>
       </c>
@@ -806,8 +837,11 @@
       <c r="G9" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>993212025</v>
       </c>
@@ -827,8 +861,11 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>993112043</v>
       </c>
@@ -848,8 +885,11 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>983112051</v>
       </c>
@@ -871,8 +911,11 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>993212036</v>
       </c>
@@ -894,8 +937,11 @@
       <c r="G13" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>983112064</v>
       </c>
@@ -917,8 +963,11 @@
       <c r="G14" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>993212039</v>
       </c>
@@ -940,8 +989,11 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>993212042</v>
       </c>
@@ -961,8 +1013,11 @@
       <c r="G16" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>973212050</v>
       </c>
@@ -982,8 +1037,11 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>40030212051</v>
       </c>
@@ -1003,8 +1061,11 @@
       <c r="G18" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>983112135</v>
       </c>
@@ -1026,8 +1087,11 @@
       <c r="G19" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>983112105</v>
       </c>
@@ -1047,8 +1111,11 @@
       <c r="G20" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>993112107</v>
       </c>
@@ -1070,8 +1137,11 @@
       <c r="G21" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>993112108</v>
       </c>
@@ -1091,8 +1161,11 @@
       <c r="G22" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>973212090</v>
       </c>
@@ -1112,8 +1185,11 @@
       <c r="G23" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>993212073</v>
       </c>
@@ -1135,8 +1211,11 @@
       <c r="G24" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>993112138</v>
       </c>
@@ -1158,8 +1237,11 @@
       <c r="G25" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>993212074</v>
       </c>
@@ -1181,8 +1263,11 @@
       <c r="G26" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>40131712007</v>
       </c>
@@ -1202,8 +1287,11 @@
       <c r="G27" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>993112128</v>
       </c>
@@ -1223,8 +1311,11 @@
       <c r="G28" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>993212087</v>
       </c>
@@ -1244,8 +1335,11 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>993212088</v>
       </c>
@@ -1267,15 +1361,18 @@
       <c r="G30" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
@@ -1301,7 +1398,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C35">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1313,7 +1410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1325,7 +1422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1337,6 +1434,118 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G30 G11:G17 G5:G9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1348,7 +1557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE6E43-C737-4DAA-9F12-F028FCE91B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0672DE4-1707-4A61-B4E5-C1665BF1A3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>تمرین سری چهارم</t>
+  </si>
+  <si>
+    <t>تمرین سری پنج</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -313,20 +319,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:I30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name="تمرین سری چهارم" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name="تمرین سری چهارم" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4570EB47-D3C6-41BF-B581-4D40F40F42CB}" name="تمرین سری پنج" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,9 +616,10 @@
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="35.44140625" customWidth="1"/>
     <col min="7" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -636,8 +644,11 @@
       <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>993212002</v>
       </c>
@@ -662,8 +673,11 @@
       <c r="H2" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>993112005</v>
       </c>
@@ -671,7 +685,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -688,8 +702,11 @@
       <c r="H3" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>993112006</v>
       </c>
@@ -712,8 +729,11 @@
       <c r="H4" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>993112014</v>
       </c>
@@ -738,8 +758,11 @@
       <c r="H5" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>993112020</v>
       </c>
@@ -764,8 +787,11 @@
       <c r="H6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>993212014</v>
       </c>
@@ -790,8 +816,11 @@
       <c r="H7" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>993212016</v>
       </c>
@@ -814,8 +843,11 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>973112046</v>
       </c>
@@ -840,8 +872,11 @@
       <c r="H9" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>993212025</v>
       </c>
@@ -859,13 +894,16 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>993112043</v>
       </c>
@@ -883,13 +921,16 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>983112051</v>
       </c>
@@ -903,19 +944,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
         <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>993212036</v>
       </c>
@@ -940,8 +984,11 @@
       <c r="H13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>983112064</v>
       </c>
@@ -966,8 +1013,11 @@
       <c r="H14" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>993212039</v>
       </c>
@@ -987,13 +1037,16 @@
         <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>993212042</v>
       </c>
@@ -1016,8 +1069,11 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>973212050</v>
       </c>
@@ -1040,8 +1096,11 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>40030212051</v>
       </c>
@@ -1064,8 +1123,11 @@
       <c r="H18" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>983112135</v>
       </c>
@@ -1073,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>95</v>
@@ -1088,10 +1150,13 @@
         <v>90</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>983112105</v>
       </c>
@@ -1114,8 +1179,11 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>993112107</v>
       </c>
@@ -1140,8 +1208,11 @@
       <c r="H21" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>993112108</v>
       </c>
@@ -1155,17 +1226,20 @@
         <v>100</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>100</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>973212090</v>
       </c>
@@ -1188,8 +1262,11 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>993212073</v>
       </c>
@@ -1214,8 +1291,11 @@
       <c r="H24" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>993112138</v>
       </c>
@@ -1240,8 +1320,11 @@
       <c r="H25" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>993212074</v>
       </c>
@@ -1266,8 +1349,11 @@
       <c r="H26" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>40131712007</v>
       </c>
@@ -1290,8 +1376,11 @@
       <c r="H27" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>993112128</v>
       </c>
@@ -1314,8 +1403,11 @@
       <c r="H28" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>993212087</v>
       </c>
@@ -1338,8 +1430,11 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>993212088</v>
       </c>
@@ -1364,15 +1459,18 @@
       <c r="H30" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
@@ -1398,7 +1496,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C35">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1410,6 +1508,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1421,7 +1531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1433,7 +1543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1445,7 +1555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="G18">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1457,20 +1567,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G2">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1482,27 +1580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1521,8 +1599,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1534,7 +1632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G30 G11:G17 G5:G9">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1546,6 +1644,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1557,7 +1667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="I2:I30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0672DE4-1707-4A61-B4E5-C1665BF1A3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B7207-6816-4320-8E97-4F08AA06E2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -147,6 +147,9 @@
   <si>
     <t>تمرین سری پنج</t>
   </si>
+  <si>
+    <t>فتح اله پور محمدجواد</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +184,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -225,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +258,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -319,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:I30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:I31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I31" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
@@ -604,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1464,11 +1476,33 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="9">
+        <v>973112108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>90</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>95</v>
+      </c>
+      <c r="H31" s="1">
+        <v>90</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -1667,7 +1701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I30">
+  <conditionalFormatting sqref="I2:I31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B7207-6816-4320-8E97-4F08AA06E2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F350E461-91CB-3445-8475-4E09B0713748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -115,24 +126,6 @@
     <t>نام و نام‌خانودگی</t>
   </si>
   <si>
-    <t xml:space="preserve"> سری صفر (نهایی)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> سری صفر (نمره تمرین) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>لحاظ نمیشود</t>
-    </r>
-  </si>
-  <si>
     <t>سری یک</t>
   </si>
   <si>
@@ -142,13 +135,25 @@
     <t>سری دوم</t>
   </si>
   <si>
-    <t>تمرین سری چهارم</t>
-  </si>
-  <si>
-    <t>تمرین سری پنج</t>
-  </si>
-  <si>
     <t>فتح اله پور محمدجواد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نمره نهایی ( از ۶ ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سری صفر (نمره اضافه) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سری چهارم</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سری پنج</t>
+  </si>
+  <si>
+    <t>میانگین نمرات</t>
+  </si>
+  <si>
+    <t>بالاترین نمره</t>
   </si>
 </sst>
 </file>
@@ -190,10 +195,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +209,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,13 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,13 +278,20 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -278,7 +300,7 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -333,19 +355,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:I31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I31" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
     <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نمره اضافه) " dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name="تمرین سری چهارم" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4570EB47-D3C6-41BF-B581-4D40F40F42CB}" name="تمرین سری پنج" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name=" سری چهارم" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4570EB47-D3C6-41BF-B581-4D40F40F42CB}" name=" سری پنج" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E97381B2-8506-1244-9642-41DEA5594C7C}" name="نمره نهایی ( از ۶ ) " dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -614,32 +638,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="8" width="30.77734375" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -648,112 +678,115 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>993212002</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>993112005</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
         <v>90</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>993112005</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>80</v>
       </c>
       <c r="F3" s="1">
         <v>110</v>
       </c>
       <c r="G3" s="1">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>993112006</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
         <v>90</v>
-      </c>
-      <c r="H3" s="1">
-        <v>95</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>993112006</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H4" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>993112014</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -765,53 +798,55 @@
         <v>120</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.6499999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>993112020</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
         <v>95</v>
       </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>993112020</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
       </c>
       <c r="I6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>993212014</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -823,17 +858,18 @@
         <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>993212016</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -842,64 +878,66 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="6">
         <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>973112046</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>993212025</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1">
         <v>90</v>
@@ -909,21 +947,22 @@
         <v>90</v>
       </c>
       <c r="H10" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>993112043</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -936,14 +975,15 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>983112051</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -953,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -965,50 +1005,52 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>993212036</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1">
         <v>100</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
       </c>
       <c r="G13" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
       </c>
       <c r="I13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>983112064</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -1017,86 +1059,91 @@
         <v>100</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>993212039</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1">
         <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>993212042</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
       <c r="G16" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>973212050</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1109,18 +1156,19 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>40030212051</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
@@ -1136,40 +1184,42 @@
         <v>100</v>
       </c>
       <c r="I18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>983112135</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.1499999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>983112105</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1179,31 +1229,32 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>993112107</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1">
         <v>100</v>
@@ -1221,18 +1272,19 @@
         <v>100</v>
       </c>
       <c r="I21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>993112108</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1">
         <v>100</v>
@@ -1240,7 +1292,9 @@
       <c r="E22" s="1">
         <v>100</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
       <c r="G22" s="1">
         <v>100</v>
       </c>
@@ -1248,45 +1302,47 @@
         <v>100</v>
       </c>
       <c r="I22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>973212090</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <v>100</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>993212073</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1">
         <v>100</v>
@@ -1298,53 +1354,55 @@
         <v>100</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H24" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>993112138</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1">
         <v>100</v>
       </c>
       <c r="E25" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1">
         <v>110</v>
       </c>
       <c r="G25" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H25" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.3500000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>993212074</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1">
         <v>100</v>
@@ -1362,65 +1420,68 @@
         <v>100</v>
       </c>
       <c r="I26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>40131712007</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1">
         <v>100</v>
       </c>
       <c r="E27" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H27" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I27" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>993112128</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1">
         <v>90</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H28" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3.9499999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>993212087</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1443,93 +1504,149 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>993212088</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1">
         <v>100</v>
       </c>
       <c r="E30" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
       </c>
       <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>973112108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1">
         <v>95</v>
       </c>
-      <c r="H30" s="1">
-        <v>100</v>
-      </c>
-      <c r="I30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>973112108</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
         <v>90</v>
       </c>
-      <c r="F31" s="1">
-        <v>100</v>
-      </c>
-      <c r="G31" s="1">
-        <v>95</v>
-      </c>
       <c r="H31" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I31" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="9">
+        <f>AVERAGE(Table5[نمره نهایی ( از ۶ ) ])</f>
+        <v>4.8583333333333325</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="10">
+        <f>MAX(Table5[نمره نهایی ( از ۶ ) ])</f>
+        <v>6.6499999999999995</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C35">
+  <conditionalFormatting sqref="C1">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D1048576 D32 C33 C1:C31">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E1048576 E32 D33 D1:D31">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F31 H32 H34:H1048576 G33">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1541,7 +1658,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1553,7 +1690,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1565,19 +1710,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="E19:E30 E11:E17 E5:E9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1589,8 +1734,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="E1:E31 G32 G34:G1048576 F33">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1601,72 +1746,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H2:H31">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G30 G11:G17 G5:G9">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1677,19 +1758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="J34:J1048576 J32 I33 I1:I31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1701,8 +1770,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I31">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G1:G31 I39:I1048576 I32 H33 I35:I37">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1714,9 +1783,22 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7CB9BA-A076-984A-83A4-DD4BC5DCF5B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F350E461-91CB-3445-8475-4E09B0713748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59715292-9C90-4F26-82CE-93C0FB1F3024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -126,6 +115,24 @@
     <t>نام و نام‌خانودگی</t>
   </si>
   <si>
+    <t xml:space="preserve"> سری صفر (نهایی)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> سری صفر (نمره تمرین) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>لحاظ نمیشود</t>
+    </r>
+  </si>
+  <si>
     <t>سری یک</t>
   </si>
   <si>
@@ -135,25 +142,16 @@
     <t>سری دوم</t>
   </si>
   <si>
+    <t>تمرین سری چهارم</t>
+  </si>
+  <si>
+    <t>تمرین سری پنج</t>
+  </si>
+  <si>
     <t>فتح اله پور محمدجواد</t>
   </si>
   <si>
-    <t xml:space="preserve">نمره نهایی ( از ۶ ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> سری صفر (نمره اضافه) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> سری چهارم</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> سری پنج</t>
-  </si>
-  <si>
-    <t>میانگین نمرات</t>
-  </si>
-  <si>
-    <t>بالاترین نمره</t>
+    <t>شعبان پور محمدجواد</t>
   </si>
 </sst>
 </file>
@@ -195,11 +193,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,18 +206,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,10 +237,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,20 +266,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -300,7 +281,7 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -353,23 +334,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:I31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I31" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:I32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I32" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نمره اضافه) " dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name=" سری چهارم" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{4570EB47-D3C6-41BF-B581-4D40F40F42CB}" name=" سری پنج" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E97381B2-8506-1244-9642-41DEA5594C7C}" name="نمره نهایی ( از ۶ ) " dataDxfId="0">
-      <calculatedColumnFormula xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name="تمرین سری چهارم" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4570EB47-D3C6-41BF-B581-4D40F40F42CB}" name="تمرین سری پنج" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,38 +617,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -678,115 +651,112 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>993212002</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>993112005</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>80</v>
-      </c>
-      <c r="E3" s="1">
-        <v>90</v>
       </c>
       <c r="F3" s="1">
         <v>110</v>
       </c>
       <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
         <v>95</v>
       </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
       <c r="I3" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>993112006</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1">
         <v>85</v>
       </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
       <c r="I4" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>993112014</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -798,55 +768,53 @@
         <v>120</v>
       </c>
       <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
         <v>95</v>
       </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
       <c r="I5" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.6499999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>993112020</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
       </c>
       <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
         <v>95</v>
       </c>
-      <c r="F6" s="1">
-        <v>100</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
       <c r="H6" s="1">
         <v>100</v>
       </c>
       <c r="I6" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>993212014</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -858,18 +826,17 @@
         <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I7" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>993212016</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -878,66 +845,64 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
         <v>80</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>3.8000000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>973112046</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
         <v>95</v>
       </c>
-      <c r="F9" s="1">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>85</v>
       </c>
-      <c r="H9" s="1">
-        <v>100</v>
-      </c>
       <c r="I9" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>993212025</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1">
         <v>90</v>
@@ -947,22 +912,21 @@
         <v>90</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I10" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>993112043</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -975,15 +939,14 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I11" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>983112051</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -993,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1005,52 +968,50 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>993212036</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>100</v>
       </c>
       <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
         <v>95</v>
       </c>
-      <c r="F13" s="1">
-        <v>100</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
       <c r="H13" s="1">
         <v>100</v>
       </c>
       <c r="I13" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>983112064</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -1059,91 +1020,86 @@
         <v>100</v>
       </c>
       <c r="F14" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I14" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>993212039</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1">
         <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I15" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>993212042</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
       </c>
       <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>95</v>
       </c>
-      <c r="F16" s="1">
-        <v>100</v>
-      </c>
-      <c r="G16" s="1">
-        <v>100</v>
-      </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>973212050</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1156,19 +1112,18 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>40030212051</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
@@ -1184,42 +1139,40 @@
         <v>100</v>
       </c>
       <c r="I18" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>983112135</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1">
         <v>95</v>
       </c>
-      <c r="E19" s="1">
-        <v>90</v>
-      </c>
       <c r="F19" s="1">
         <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
       </c>
       <c r="I19" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.1499999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>983112105</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1229,32 +1182,31 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>993112107</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1">
         <v>100</v>
@@ -1272,19 +1224,18 @@
         <v>100</v>
       </c>
       <c r="I21" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>993112108</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1">
         <v>100</v>
@@ -1292,9 +1243,7 @@
       <c r="E22" s="1">
         <v>100</v>
       </c>
-      <c r="F22" s="1">
-        <v>100</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>100</v>
       </c>
@@ -1302,47 +1251,45 @@
         <v>100</v>
       </c>
       <c r="I22" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>973212090</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
         <v>100</v>
       </c>
       <c r="E23" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>993212073</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>100</v>
@@ -1351,58 +1298,56 @@
         <v>100</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1">
         <v>95</v>
       </c>
-      <c r="H24" s="1">
-        <v>100</v>
-      </c>
       <c r="I24" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>993112138</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
         <v>100</v>
       </c>
       <c r="E25" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1">
         <v>110</v>
       </c>
       <c r="G25" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H25" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I25" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.3500000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>993212074</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1">
         <v>100</v>
@@ -1420,68 +1365,65 @@
         <v>100</v>
       </c>
       <c r="I26" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>40131712007</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1">
         <v>100</v>
       </c>
       <c r="E27" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H27" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I27" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>993112128</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>90</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1">
         <v>85</v>
       </c>
-      <c r="H28" s="1">
-        <v>100</v>
-      </c>
       <c r="I28" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>3.9499999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>993212087</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1504,149 +1446,104 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>993212088</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1">
         <v>100</v>
       </c>
       <c r="E30" s="1">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
         <v>95</v>
       </c>
-      <c r="F30" s="1">
-        <v>100</v>
-      </c>
-      <c r="G30" s="1">
-        <v>100</v>
-      </c>
       <c r="H30" s="1">
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>973112108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
+        <v>90</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
         <v>95</v>
       </c>
-      <c r="F31" s="1">
-        <v>100</v>
-      </c>
-      <c r="G31" s="1">
-        <v>90</v>
-      </c>
       <c r="H31" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I31" s="1">
-        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>973212040</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="9">
-        <f>AVERAGE(Table5[نمره نهایی ( از ۶ ) ])</f>
-        <v>4.8583333333333325</v>
-      </c>
+      <c r="F32" s="1">
+        <v>120</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="10">
-        <f>MAX(Table5[نمره نهایی ( از ۶ ) ])</f>
-        <v>6.6499999999999995</v>
-      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D1048576 D32 C33 C1:C31">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E1048576 E32 D33 D1:D31">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F31 H32 H34:H1048576 G33">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="C1:C35">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1658,27 +1555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="D1">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1690,15 +1567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1710,19 +1579,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E30 E11:E17 E5:E9">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1734,7 +1603,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E31 G32 G34:G1048576 F33">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1745,9 +1638,49 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H31">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G30 G11:G17 G5:G9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1758,7 +1691,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J1048576 J32 I33 I1:I31">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1770,8 +1715,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G31 I39:I1048576 I32 H33 I35:I37">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="I2:I32">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1783,22 +1728,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7CB9BA-A076-984A-83A4-DD4BC5DCF5B4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/grades.xlsx
+++ b/grades.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59715292-9C90-4F26-82CE-93C0FB1F3024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739517F2-2E89-44AD-858B-BD51ED3CC018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>انق ساناز</t>
   </si>
@@ -115,24 +126,6 @@
     <t>نام و نام‌خانودگی</t>
   </si>
   <si>
-    <t xml:space="preserve"> سری صفر (نهایی)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> سری صفر (نمره تمرین) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>لحاظ نمیشود</t>
-    </r>
-  </si>
-  <si>
     <t>سری یک</t>
   </si>
   <si>
@@ -142,13 +135,25 @@
     <t>سری دوم</t>
   </si>
   <si>
-    <t>تمرین سری چهارم</t>
-  </si>
-  <si>
-    <t>تمرین سری پنج</t>
-  </si>
-  <si>
     <t>فتح اله پور محمدجواد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نمره نهایی ( از ۶ ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سری صفر (نمره اضافه) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سری چهارم</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سری پنج</t>
+  </si>
+  <si>
+    <t>میانگین نمرات</t>
+  </si>
+  <si>
+    <t>بالاترین نمره</t>
   </si>
   <si>
     <t>شعبان پور محمدجواد</t>
@@ -161,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,10 +198,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,13 +261,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,13 +287,26 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -281,7 +315,7 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -336,19 +370,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:I32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I32" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
     <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="شماره دانشجویی" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="نام و نام‌خانودگی" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" سری صفر (نمره تمرین) لحاظ نمیشود" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نهایی)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" سری صفر (نمره اضافه) " dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="سری یک" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="پروژه" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{DBEA0034-3DAF-4B94-88B8-43D090FAFE06}" name="سری دوم" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name="تمرین سری چهارم" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4570EB47-D3C6-41BF-B581-4D40F40F42CB}" name="تمرین سری پنج" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5ACFD792-2CC7-40B4-BD2C-530D9C8ACE60}" name=" سری چهارم" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4570EB47-D3C6-41BF-B581-4D40F40F42CB}" name=" سری پنج" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E97381B2-8506-1244-9642-41DEA5594C7C}" name="نمره نهایی ( از ۶ ) " dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -617,21 +653,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="8" width="30.77734375" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -641,8 +683,8 @@
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -651,112 +693,115 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>993212002</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>993112005</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
         <v>90</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>993112005</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>80</v>
       </c>
       <c r="F3" s="1">
         <v>110</v>
       </c>
       <c r="G3" s="1">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>993112006</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
         <v>90</v>
-      </c>
-      <c r="H3" s="1">
-        <v>95</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>993112006</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H4" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>993112014</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -768,53 +813,55 @@
         <v>120</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.6499999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>993112020</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
         <v>95</v>
       </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>993112020</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
       </c>
       <c r="I6" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>993212014</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -826,17 +873,18 @@
         <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>993212016</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -845,64 +893,66 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="6">
         <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>973112046</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>993212025</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1">
         <v>90</v>
@@ -912,21 +962,22 @@
         <v>90</v>
       </c>
       <c r="H10" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>993112043</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -939,14 +990,15 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>983112051</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -956,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -968,50 +1020,52 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>993212036</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1">
         <v>100</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
       </c>
       <c r="G13" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
       </c>
       <c r="I13" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>983112064</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -1020,86 +1074,91 @@
         <v>100</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1">
-        <v>80</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>993212039</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1">
         <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.55</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>993212042</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
       <c r="G16" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>973212050</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1112,18 +1171,19 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>40030212051</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
@@ -1139,40 +1199,42 @@
         <v>100</v>
       </c>
       <c r="I18" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>983112135</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
       </c>
       <c r="I19" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.1499999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>983112105</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1182,31 +1244,32 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>993112107</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1">
         <v>100</v>
@@ -1224,18 +1287,19 @@
         <v>100</v>
       </c>
       <c r="I21" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>993112108</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1">
         <v>100</v>
@@ -1243,7 +1307,9 @@
       <c r="E22" s="1">
         <v>100</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
       <c r="G22" s="1">
         <v>100</v>
       </c>
@@ -1251,45 +1317,47 @@
         <v>100</v>
       </c>
       <c r="I22" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>973212090</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <v>100</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>993212073</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1">
         <v>100</v>
@@ -1301,53 +1369,55 @@
         <v>110</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H24" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I24" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.45</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>993112138</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1">
         <v>100</v>
       </c>
       <c r="E25" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1">
         <v>110</v>
       </c>
       <c r="G25" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H25" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I25" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.3500000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>993212074</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1">
         <v>100</v>
@@ -1365,65 +1435,68 @@
         <v>100</v>
       </c>
       <c r="I26" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>40131712007</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1">
         <v>100</v>
       </c>
       <c r="E27" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H27" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I27" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>993112128</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1">
         <v>90</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H28" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>3.9499999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>993212087</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1446,73 +1519,76 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>993212088</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1">
         <v>100</v>
       </c>
       <c r="E30" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
       </c>
       <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>973112108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1">
         <v>95</v>
       </c>
-      <c r="H30" s="1">
-        <v>100</v>
-      </c>
-      <c r="I30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>973112108</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
         <v>90</v>
       </c>
-      <c r="F31" s="1">
-        <v>100</v>
-      </c>
-      <c r="G31" s="1">
-        <v>95</v>
-      </c>
       <c r="H31" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I31" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>5.75</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="11">
         <v>973212040</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1522,28 +1598,84 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="12">
+        <f xml:space="preserve"> ( Table5[[#This Row],[سری یک]] + Table5[[#This Row],[سری دوم]] + Table5[[#This Row],[ سری چهارم]] + Table5[[#This Row],[ سری پنج]] ) * 0.01 + ( Table5[[#This Row],[پروژه]] * 0.02 ) + Table5[[#This Row],[ سری صفر (نمره اضافه) ]] * 0.003</f>
+        <v>2.4</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="9">
+        <f>AVERAGE(Table5[نمره نهایی ( از ۶ ) ])</f>
+        <v>4.7854838709677407</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="10">
+        <f>MAX(Table5[نمره نهایی ( از ۶ ) ])</f>
+        <v>6.6499999999999995</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C35">
+  <conditionalFormatting sqref="C1">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D1048576 D32 C1:C33">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E1048576 E32 D1:D33">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F32 H32 H34:H1048576 G33">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1555,7 +1687,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1567,7 +1719,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1579,19 +1739,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="E19:E30 E11:E17 E5:E9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1603,8 +1763,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="E1:E32 G32 G34:G1048576 F33">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1615,72 +1775,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H2:H32">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G30 G11:G17 G5:G9">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1691,19 +1787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="J34:J1048576 J32 I1:I33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1715,8 +1799,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I32">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G1:G32 I39:I1048576 I32 H33 I35:I37">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1728,9 +1812,22 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7CB9BA-A076-984A-83A4-DD4BC5DCF5B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>